--- a/fhir/ig/tei/0.2.1/ValueSet-TipoDeObservacion.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-TipoDeObservacion.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Tipo de Observac" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from LOINC" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
